--- a/nlp/data/accuracy/Accuracy Orange.xlsx
+++ b/nlp/data/accuracy/Accuracy Orange.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sfigueroa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecnun365-my.sharepoint.com/personal/sfigueroa_tecnun_es/Documents/3. AUTO-APRENDIZAJE/00. MENTORSHIP LINUX FOUNDATION/06. ENTREGABLES/06. Accuracy NLP Engine/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68105224-E12F-44EC-A32E-939D57B3B927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="322" documentId="13_ncr:1_{68105224-E12F-44EC-A32E-939D57B3B927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27F76C58-FE2D-4202-81DA-E933BE018407}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{D0A88E05-6391-47B7-8A4A-BD7DF70C3085}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{D0A88E05-6391-47B7-8A4A-BD7DF70C3085}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="variations-approach" sheetId="2" r:id="rId1"/>
+    <sheet name="symbol-approach" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="40">
   <si>
     <t>Sub-article</t>
   </si>
@@ -81,9 +82,6 @@
     <t>Difference lies in the "\n" characters and in the fact that the NLP engine included the document header erroneously.</t>
   </si>
   <si>
-    <t>Results without header detection errors</t>
-  </si>
-  <si>
     <t>Difference lies in '\n' characters and others characters</t>
   </si>
   <si>
@@ -100,6 +98,63 @@
   </si>
   <si>
     <t>Difference lies in NLP engine fail</t>
+  </si>
+  <si>
+    <t>Results excluding header detection errors</t>
+  </si>
+  <si>
+    <t>Article</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>number of variables detected</t>
+  </si>
+  <si>
+    <t>number of standard clauses</t>
+  </si>
+  <si>
+    <t>number of variations</t>
+  </si>
+  <si>
+    <t>number of custom texts</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Header detection</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Entity detection error</t>
+  </si>
+  <si>
+    <t>Starting Dates</t>
+  </si>
+  <si>
+    <t>Observed Error</t>
+  </si>
+  <si>
+    <t>Human eye verification</t>
+  </si>
+  <si>
+    <t>Verification in RAOT.json</t>
+  </si>
+  <si>
+    <t>Duration of the agreement</t>
+  </si>
+  <si>
+    <t>Termination of the agreement</t>
+  </si>
+  <si>
+    <t>Choice of Law</t>
+  </si>
+  <si>
+    <t>Force Majeure</t>
   </si>
 </sst>
 </file>
@@ -123,7 +178,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,8 +197,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -160,11 +221,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -261,6 +358,66 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,11 +736,424 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB53A25-640F-4413-86BA-0A393BCD5AC9}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1796875" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="52"/>
+    <col min="7" max="7" width="28.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="57" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="43">
+        <v>4</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="45">
+        <v>1</v>
+      </c>
+      <c r="E2" s="55">
+        <v>0</v>
+      </c>
+      <c r="F2" s="48">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="14">
+        <v>0</v>
+      </c>
+      <c r="E3" s="36">
+        <v>0</v>
+      </c>
+      <c r="F3" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0</v>
+      </c>
+      <c r="E4" s="36">
+        <v>0</v>
+      </c>
+      <c r="F4" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="46">
+        <v>2</v>
+      </c>
+      <c r="E5" s="53">
+        <v>2</v>
+      </c>
+      <c r="F5" s="50">
+        <v>1</v>
+      </c>
+      <c r="G5" s="40"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="38">
+        <v>5</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="36">
+        <v>0</v>
+      </c>
+      <c r="E6" s="36">
+        <v>0</v>
+      </c>
+      <c r="F6" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="36">
+        <v>0</v>
+      </c>
+      <c r="E7" s="36">
+        <v>0</v>
+      </c>
+      <c r="F7" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="36">
+        <v>0</v>
+      </c>
+      <c r="E8" s="36">
+        <v>0</v>
+      </c>
+      <c r="F8" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="47">
+        <v>1</v>
+      </c>
+      <c r="E9" s="53">
+        <v>1</v>
+      </c>
+      <c r="F9" s="50">
+        <v>1</v>
+      </c>
+      <c r="G9" s="40"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="38">
+        <v>13</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="16">
+        <v>3</v>
+      </c>
+      <c r="E10" s="36">
+        <v>4</v>
+      </c>
+      <c r="F10" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0</v>
+      </c>
+      <c r="E11" s="36">
+        <v>0</v>
+      </c>
+      <c r="F11" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="14">
+        <v>0</v>
+      </c>
+      <c r="E12" s="36">
+        <v>1</v>
+      </c>
+      <c r="F12" s="49">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="47">
+        <v>5</v>
+      </c>
+      <c r="E13" s="53">
+        <v>4</v>
+      </c>
+      <c r="F13" s="50">
+        <v>0.8</v>
+      </c>
+      <c r="G13" s="40"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="41">
+        <v>19</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="54">
+        <v>0</v>
+      </c>
+      <c r="E14" s="56">
+        <v>2</v>
+      </c>
+      <c r="F14" s="51">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="16">
+        <v>2</v>
+      </c>
+      <c r="E15" s="36">
+        <v>2</v>
+      </c>
+      <c r="F15" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="36">
+        <v>0</v>
+      </c>
+      <c r="F16" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="47">
+        <v>0</v>
+      </c>
+      <c r="E17" s="53">
+        <v>0</v>
+      </c>
+      <c r="F17" s="50">
+        <v>1</v>
+      </c>
+      <c r="G17" s="40"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="41">
+        <v>23</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="54">
+        <v>0</v>
+      </c>
+      <c r="E18" s="56">
+        <v>0</v>
+      </c>
+      <c r="F18" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="16">
+        <v>1</v>
+      </c>
+      <c r="E19" s="36">
+        <v>1</v>
+      </c>
+      <c r="F19" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="16">
+        <v>0</v>
+      </c>
+      <c r="E20" s="36">
+        <v>0</v>
+      </c>
+      <c r="F20" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="47">
+        <v>0</v>
+      </c>
+      <c r="E21" s="53">
+        <v>0</v>
+      </c>
+      <c r="F21" s="50">
+        <v>1</v>
+      </c>
+      <c r="G21" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A14:A17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C8BAB4-5F62-4C64-804C-91F5B3A21261}">
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -653,7 +1223,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -704,7 +1274,7 @@
         <v>95.92</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="31">
         <v>447</v>
@@ -784,7 +1354,7 @@
         <v>93.75</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="31">
         <v>135</v>
@@ -921,7 +1491,7 @@
         <v>2.1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="3">
         <v>5.05</v>
@@ -1241,7 +1811,7 @@
         <v>8.1</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C33" s="9">
         <v>35.99</v>
@@ -1853,7 +2423,7 @@
         <v>839</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
@@ -1873,7 +2443,7 @@
         <v>828</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
@@ -2347,7 +2917,7 @@
     </row>
     <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="27" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B92" s="27"/>
       <c r="C92" s="37"/>

--- a/nlp/data/accuracy/Accuracy Orange.xlsx
+++ b/nlp/data/accuracy/Accuracy Orange.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecnun365-my.sharepoint.com/personal/sfigueroa_tecnun_es/Documents/3. AUTO-APRENDIZAJE/00. MENTORSHIP LINUX FOUNDATION/06. ENTREGABLES/06. Accuracy NLP Engine/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="322" documentId="13_ncr:1_{68105224-E12F-44EC-A32E-939D57B3B927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27F76C58-FE2D-4202-81DA-E933BE018407}"/>
+  <xr:revisionPtr revIDLastSave="330" documentId="13_ncr:1_{68105224-E12F-44EC-A32E-939D57B3B927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37D577CA-4129-49B7-B817-3F485BE0B694}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{D0A88E05-6391-47B7-8A4A-BD7DF70C3085}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" xr2:uid="{D0A88E05-6391-47B7-8A4A-BD7DF70C3085}"/>
   </bookViews>
   <sheets>
     <sheet name="variations-approach" sheetId="2" r:id="rId1"/>
     <sheet name="symbol-approach" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,11 +35,74 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="41">
+  <si>
+    <t>Article</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Human eye verification</t>
+  </si>
+  <si>
+    <t>Verification in RAOT.json</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Observed Error</t>
+  </si>
+  <si>
+    <t>Starting Dates</t>
+  </si>
+  <si>
+    <t>number of variables detected</t>
+  </si>
+  <si>
+    <t>Entity detection</t>
+  </si>
+  <si>
+    <t>number of standard clauses</t>
+  </si>
+  <si>
+    <t>number of variations</t>
+  </si>
+  <si>
+    <t>number of custom texts</t>
+  </si>
+  <si>
+    <t>Duration of the agreement</t>
+  </si>
+  <si>
+    <t>Termination of the agreement</t>
+  </si>
+  <si>
+    <t>Header detection</t>
+  </si>
+  <si>
+    <t>Characters detected</t>
+  </si>
+  <si>
+    <t>Force Majeure</t>
+  </si>
+  <si>
+    <t>Choice of Law</t>
+  </si>
   <si>
     <t>Sub-article</t>
   </si>
   <si>
+    <t>Common (%)</t>
+  </si>
+  <si>
+    <t>Difference (%)</t>
+  </si>
+  <si>
     <t>Common (symbols)</t>
   </si>
   <si>
@@ -52,116 +115,56 @@
     <t>Difference lies in '\n' characters and ' \" ' characters</t>
   </si>
   <si>
+    <t>Difference lies in '\n' characters and others characters</t>
+  </si>
+  <si>
+    <t>Difference lies in '\n' characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.08	</t>
+  </si>
+  <si>
     <t>Difference lies in '\n' characters and '  ' characters</t>
   </si>
   <si>
-    <t>Difference lies in '\n' characters</t>
+    <t>Difference lies in the "\n" characters and in the fact that the NLP engine included the document header erroneously.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94.95	</t>
   </si>
   <si>
     <t>Difference lies in '\n\n\n\n\n' characters.</t>
   </si>
   <si>
+    <t xml:space="preserve">64.01	</t>
+  </si>
+  <si>
     <t>Difference lies in '\n' characters and other characters</t>
   </si>
   <si>
-    <t>Common (%)</t>
-  </si>
-  <si>
-    <t>Difference (%)</t>
+    <t>Difference lies in NLP engine fail</t>
   </si>
   <si>
     <t>Results</t>
   </si>
   <si>
+    <t>Good</t>
+  </si>
+  <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>Difference lies in the "\n" characters and in the fact that the NLP engine included the document header erroneously.</t>
-  </si>
-  <si>
-    <t>Difference lies in '\n' characters and others characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.08	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.25	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94.95	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.01	</t>
-  </si>
-  <si>
-    <t>Difference lies in NLP engine fail</t>
-  </si>
-  <si>
     <t>Results excluding header detection errors</t>
-  </si>
-  <si>
-    <t>Article</t>
-  </si>
-  <si>
-    <t>Feature</t>
-  </si>
-  <si>
-    <t>number of variables detected</t>
-  </si>
-  <si>
-    <t>number of standard clauses</t>
-  </si>
-  <si>
-    <t>number of variations</t>
-  </si>
-  <si>
-    <t>number of custom texts</t>
-  </si>
-  <si>
-    <t>Accuracy</t>
-  </si>
-  <si>
-    <t>Header detection</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Entity detection error</t>
-  </si>
-  <si>
-    <t>Starting Dates</t>
-  </si>
-  <si>
-    <t>Observed Error</t>
-  </si>
-  <si>
-    <t>Human eye verification</t>
-  </si>
-  <si>
-    <t>Verification in RAOT.json</t>
-  </si>
-  <si>
-    <t>Duration of the agreement</t>
-  </si>
-  <si>
-    <t>Termination of the agreement</t>
-  </si>
-  <si>
-    <t>Choice of Law</t>
-  </si>
-  <si>
-    <t>Force Majeure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,9 +301,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -361,17 +361,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -416,6 +407,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -739,409 +742,414 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB53A25-640F-4413-86BA-0A393BCD5AC9}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1796875" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="52"/>
-    <col min="7" max="7" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="48"/>
+    <col min="7" max="7" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="57" t="s">
+    <row r="1" spans="1:7" ht="15" thickBot="1">
+      <c r="A1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="56">
+        <v>4</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="41">
+        <v>1</v>
+      </c>
+      <c r="E2" s="51">
+        <v>0</v>
+      </c>
+      <c r="F2" s="44">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="37">
+        <v>0</v>
+      </c>
+      <c r="E3" s="35">
+        <v>0</v>
+      </c>
+      <c r="F3" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="37">
+        <v>0</v>
+      </c>
+      <c r="E4" s="35">
+        <v>0</v>
+      </c>
+      <c r="F4" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="42">
+        <v>2</v>
+      </c>
+      <c r="E5" s="49">
+        <v>2</v>
+      </c>
+      <c r="F5" s="46">
+        <v>1</v>
+      </c>
+      <c r="G5" s="38"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="57">
+        <v>5</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="35">
+        <v>0</v>
+      </c>
+      <c r="E6" s="35">
+        <v>0</v>
+      </c>
+      <c r="F6" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="57"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="35">
+        <v>0</v>
+      </c>
+      <c r="E7" s="35">
+        <v>0</v>
+      </c>
+      <c r="F7" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="57"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="35">
+        <v>0</v>
+      </c>
+      <c r="E8" s="35">
+        <v>0</v>
+      </c>
+      <c r="F8" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="43">
+        <v>1</v>
+      </c>
+      <c r="E9" s="49">
+        <v>1</v>
+      </c>
+      <c r="F9" s="46">
+        <v>1</v>
+      </c>
+      <c r="G9" s="38"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="57">
+        <v>13</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="15">
+        <v>3</v>
+      </c>
+      <c r="E10" s="35">
+        <v>4</v>
+      </c>
+      <c r="F10" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0</v>
+      </c>
+      <c r="E11" s="35">
+        <v>0</v>
+      </c>
+      <c r="F11" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15">
+      <c r="A12" s="57"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="37">
+        <v>0</v>
+      </c>
+      <c r="E12" s="35">
+        <v>1</v>
+      </c>
+      <c r="F12" s="45">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="43">
+        <v>5</v>
+      </c>
+      <c r="E13" s="49">
+        <v>4</v>
+      </c>
+      <c r="F13" s="46">
+        <v>0.8</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="59">
+        <v>19</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="50">
+        <v>0</v>
+      </c>
+      <c r="E14" s="52">
+        <v>2</v>
+      </c>
+      <c r="F14" s="47">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="57"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="35">
+        <v>2</v>
+      </c>
+      <c r="F15" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="57"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="15">
+        <v>0</v>
+      </c>
+      <c r="E16" s="35">
+        <v>0</v>
+      </c>
+      <c r="F16" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="43">
+        <v>0</v>
+      </c>
+      <c r="E17" s="49">
+        <v>0</v>
+      </c>
+      <c r="F17" s="46">
+        <v>1</v>
+      </c>
+      <c r="G17" s="38"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="59">
         <v>23</v>
       </c>
-      <c r="D1" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="57" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="43">
-        <v>4</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="45">
+      <c r="B18" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="50">
+        <v>0</v>
+      </c>
+      <c r="E18" s="52">
+        <v>0</v>
+      </c>
+      <c r="F18" s="45">
         <v>1</v>
       </c>
-      <c r="E2" s="55">
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="57"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="15">
+        <v>1</v>
+      </c>
+      <c r="E19" s="35">
+        <v>1</v>
+      </c>
+      <c r="F19" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="57"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="15">
         <v>0</v>
       </c>
-      <c r="F2" s="48">
+      <c r="E20" s="35">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="14">
+      <c r="F20" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="43">
         <v>0</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E21" s="49">
         <v>0</v>
       </c>
-      <c r="F3" s="49">
+      <c r="F21" s="46">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="14">
-        <v>0</v>
-      </c>
-      <c r="E4" s="36">
-        <v>0</v>
-      </c>
-      <c r="F4" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="46">
-        <v>2</v>
-      </c>
-      <c r="E5" s="53">
-        <v>2</v>
-      </c>
-      <c r="F5" s="50">
-        <v>1</v>
-      </c>
-      <c r="G5" s="40"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="38">
-        <v>5</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="36">
-        <v>0</v>
-      </c>
-      <c r="E6" s="36">
-        <v>0</v>
-      </c>
-      <c r="F6" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="36">
-        <v>0</v>
-      </c>
-      <c r="E7" s="36">
-        <v>0</v>
-      </c>
-      <c r="F7" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="36">
-        <v>0</v>
-      </c>
-      <c r="E8" s="36">
-        <v>0</v>
-      </c>
-      <c r="F8" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="47">
-        <v>1</v>
-      </c>
-      <c r="E9" s="53">
-        <v>1</v>
-      </c>
-      <c r="F9" s="50">
-        <v>1</v>
-      </c>
-      <c r="G9" s="40"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="38">
-        <v>13</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="16">
-        <v>3</v>
-      </c>
-      <c r="E10" s="36">
-        <v>4</v>
-      </c>
-      <c r="F10" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="16">
-        <v>0</v>
-      </c>
-      <c r="E11" s="36">
-        <v>0</v>
-      </c>
-      <c r="F11" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="14">
-        <v>0</v>
-      </c>
-      <c r="E12" s="36">
-        <v>1</v>
-      </c>
-      <c r="F12" s="49">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="47">
-        <v>5</v>
-      </c>
-      <c r="E13" s="53">
-        <v>4</v>
-      </c>
-      <c r="F13" s="50">
-        <v>0.8</v>
-      </c>
-      <c r="G13" s="40"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="41">
-        <v>19</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="54">
-        <v>0</v>
-      </c>
-      <c r="E14" s="56">
-        <v>2</v>
-      </c>
-      <c r="F14" s="51">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="16">
-        <v>2</v>
-      </c>
-      <c r="E15" s="36">
-        <v>2</v>
-      </c>
-      <c r="F15" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="36">
-        <v>0</v>
-      </c>
-      <c r="F16" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="47">
-        <v>0</v>
-      </c>
-      <c r="E17" s="53">
-        <v>0</v>
-      </c>
-      <c r="F17" s="50">
-        <v>1</v>
-      </c>
-      <c r="G17" s="40"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="41">
-        <v>23</v>
-      </c>
-      <c r="B18" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="54">
-        <v>0</v>
-      </c>
-      <c r="E18" s="56">
-        <v>0</v>
-      </c>
-      <c r="F18" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="16">
-        <v>1</v>
-      </c>
-      <c r="E19" s="36">
-        <v>1</v>
-      </c>
-      <c r="F19" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="16">
-        <v>0</v>
-      </c>
-      <c r="E20" s="36">
-        <v>0</v>
-      </c>
-      <c r="F20" s="49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="39"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="47">
-        <v>0</v>
-      </c>
-      <c r="E21" s="53">
-        <v>0</v>
-      </c>
-      <c r="F21" s="50">
-        <v>1</v>
-      </c>
-      <c r="G21" s="40"/>
+      <c r="G21" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A14:A17"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A14:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1152,41 +1160,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C8BAB4-5F62-4C64-804C-91F5B3A21261}">
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1796875" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="110.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="110.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>23</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickTop="1">
       <c r="A2" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -1196,17 +1204,17 @@
       <c r="C2" s="3">
         <v>9.5399999999999991</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="30">
         <v>275</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="30">
         <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1.2</v>
       </c>
@@ -1216,17 +1224,17 @@
       <c r="C3" s="3">
         <v>10.81</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="30">
         <v>363</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="30">
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>1.3</v>
       </c>
@@ -1236,17 +1244,17 @@
       <c r="C4" s="3">
         <v>6.14</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="27">
         <v>107</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="30">
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>1.4</v>
       </c>
@@ -1256,17 +1264,17 @@
       <c r="C5" s="3">
         <v>4.46</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="30">
         <v>493</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="30">
         <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>1.5</v>
       </c>
@@ -1274,19 +1282,19 @@
         <v>95.92</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="31">
+        <v>28</v>
+      </c>
+      <c r="D6" s="30">
         <v>447</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="30">
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>1.6</v>
       </c>
@@ -1296,17 +1304,17 @@
       <c r="C7" s="3">
         <v>5.26</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="30">
         <v>126</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="30">
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="6">
         <v>2.1</v>
       </c>
@@ -1316,17 +1324,17 @@
       <c r="C8" s="9">
         <v>41.28</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="31">
         <v>643</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="31">
         <v>452</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>2.2000000000000002</v>
       </c>
@@ -1336,17 +1344,17 @@
       <c r="C9" s="3">
         <v>7.5</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="30">
         <v>111</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="30">
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>2.2999999999999998</v>
       </c>
@@ -1354,19 +1362,19 @@
         <v>93.75</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="31">
+        <v>31</v>
+      </c>
+      <c r="D10" s="30">
         <v>135</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="30">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>2.4</v>
       </c>
@@ -1376,17 +1384,17 @@
       <c r="C11" s="3">
         <v>15.56</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="30">
         <v>114</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="30">
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>2.5</v>
       </c>
@@ -1396,17 +1404,17 @@
       <c r="C12" s="3">
         <v>7.82</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="30">
         <v>342</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="30">
         <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>2.6</v>
       </c>
@@ -1416,17 +1424,17 @@
       <c r="C13" s="3">
         <v>4.78</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="30">
         <v>259</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="30">
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>2.7</v>
       </c>
@@ -1436,17 +1444,17 @@
       <c r="C14" s="3">
         <v>17.95</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="30">
         <v>96</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="30">
         <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>2.8</v>
       </c>
@@ -1456,17 +1464,17 @@
       <c r="C15" s="3">
         <v>10.08</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="30">
         <v>223</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="30">
         <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>2.9</v>
       </c>
@@ -1476,37 +1484,37 @@
       <c r="C16" s="3">
         <v>5.63</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="30">
         <v>151</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="30">
         <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="3">
         <v>2.1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C17" s="3">
         <v>5.05</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="30">
         <v>94</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="30">
         <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>3.1</v>
       </c>
@@ -1516,17 +1524,17 @@
       <c r="C18" s="3">
         <v>3.9</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="27">
         <v>74</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="30">
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="20" customFormat="1">
       <c r="A19" s="6">
         <v>3.2</v>
       </c>
@@ -1536,17 +1544,17 @@
       <c r="C19" s="9">
         <v>65.44</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="31">
         <v>225</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="31">
         <v>426</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>4.0999999999999996</v>
       </c>
@@ -1556,17 +1564,17 @@
       <c r="C20" s="3">
         <v>6.6</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="30">
         <v>99</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="30">
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>4.2</v>
       </c>
@@ -1576,37 +1584,37 @@
       <c r="C21" s="3">
         <v>5.39</v>
       </c>
-      <c r="D21" s="31">
+      <c r="D21" s="30">
         <v>193</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="30">
         <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="20" customFormat="1">
+      <c r="A22" s="18">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="19">
         <v>96.34</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="21">
         <v>3.66</v>
       </c>
-      <c r="D22" s="33">
+      <c r="D22" s="32">
         <v>184</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E22" s="32">
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="6">
         <v>6.1</v>
       </c>
@@ -1616,97 +1624,97 @@
       <c r="C23" s="9">
         <v>21.26</v>
       </c>
-      <c r="D23" s="32">
+      <c r="D23" s="31">
         <v>1889</v>
       </c>
-      <c r="E23" s="32">
+      <c r="E23" s="31">
         <v>510</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="18">
         <v>6.2</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="19">
         <v>92.2</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="21">
         <v>7.8</v>
       </c>
-      <c r="D24" s="33">
+      <c r="D24" s="32">
         <v>189</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E24" s="32">
         <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="18">
         <v>6.3</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="19">
         <v>95.8</v>
       </c>
       <c r="C25" s="3">
         <v>4.2</v>
       </c>
-      <c r="D25" s="33">
+      <c r="D25" s="32">
         <v>251</v>
       </c>
-      <c r="E25" s="33">
+      <c r="E25" s="32">
         <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="18">
         <v>6.4</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="19">
         <v>95.8</v>
       </c>
       <c r="C26" s="3">
         <v>4.2</v>
       </c>
-      <c r="D26" s="33">
+      <c r="D26" s="32">
         <v>251</v>
       </c>
-      <c r="E26" s="33">
+      <c r="E26" s="32">
         <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="18">
         <v>6.5</v>
       </c>
-      <c r="B27" s="20">
+      <c r="B27" s="19">
         <v>95.67</v>
       </c>
       <c r="C27" s="3">
         <v>4.33</v>
       </c>
-      <c r="D27" s="33">
+      <c r="D27" s="32">
         <v>243</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E27" s="32">
         <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>7.1</v>
       </c>
@@ -1716,17 +1724,17 @@
       <c r="C28" s="3">
         <v>3.87</v>
       </c>
-      <c r="D28" s="31">
+      <c r="D28" s="30">
         <v>174</v>
       </c>
-      <c r="E28" s="31">
+      <c r="E28" s="30">
         <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>7.2</v>
       </c>
@@ -1736,17 +1744,17 @@
       <c r="C29" s="3">
         <v>3.89</v>
       </c>
-      <c r="D29" s="31">
+      <c r="D29" s="30">
         <v>173</v>
       </c>
-      <c r="E29" s="31">
+      <c r="E29" s="30">
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>7.3</v>
       </c>
@@ -1756,17 +1764,17 @@
       <c r="C30" s="3">
         <v>4.07</v>
       </c>
-      <c r="D30" s="31">
+      <c r="D30" s="30">
         <v>448</v>
       </c>
-      <c r="E30" s="31">
+      <c r="E30" s="30">
         <v>19</v>
       </c>
       <c r="F30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>7.4</v>
       </c>
@@ -1776,17 +1784,17 @@
       <c r="C31" s="3">
         <v>7.2</v>
       </c>
-      <c r="D31" s="31">
+      <c r="D31" s="30">
         <v>232</v>
       </c>
-      <c r="E31" s="31">
+      <c r="E31" s="30">
         <v>18</v>
       </c>
       <c r="F31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>7.5</v>
       </c>
@@ -1796,37 +1804,37 @@
       <c r="C32" s="3">
         <v>4.68</v>
       </c>
-      <c r="D32" s="31">
+      <c r="D32" s="30">
         <v>224</v>
       </c>
-      <c r="E32" s="31">
+      <c r="E32" s="30">
         <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="6">
         <v>8.1</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C33" s="9">
         <v>35.99</v>
       </c>
-      <c r="D33" s="32">
+      <c r="D33" s="31">
         <v>978</v>
       </c>
-      <c r="E33" s="32">
+      <c r="E33" s="31">
         <v>550</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>8.1999999999999993</v>
       </c>
@@ -1836,17 +1844,17 @@
       <c r="C34" s="3">
         <v>9.7100000000000009</v>
       </c>
-      <c r="D34" s="31">
+      <c r="D34" s="30">
         <v>409</v>
       </c>
-      <c r="E34" s="31">
+      <c r="E34" s="30">
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>8.3000000000000007</v>
       </c>
@@ -1856,17 +1864,17 @@
       <c r="C35" s="3">
         <v>4.03</v>
       </c>
-      <c r="D35" s="31">
+      <c r="D35" s="30">
         <v>262</v>
       </c>
-      <c r="E35" s="31">
+      <c r="E35" s="30">
         <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>8.4</v>
       </c>
@@ -1876,17 +1884,17 @@
       <c r="C36" s="3">
         <v>3.88</v>
       </c>
-      <c r="D36" s="31">
+      <c r="D36" s="30">
         <v>372</v>
       </c>
-      <c r="E36" s="31">
+      <c r="E36" s="30">
         <v>15</v>
       </c>
       <c r="F36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>8.5</v>
       </c>
@@ -1896,17 +1904,17 @@
       <c r="C37" s="3">
         <v>4.71</v>
       </c>
-      <c r="D37" s="31">
+      <c r="D37" s="30">
         <v>243</v>
       </c>
-      <c r="E37" s="31">
+      <c r="E37" s="30">
         <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>8.6</v>
       </c>
@@ -1916,17 +1924,17 @@
       <c r="C38" s="3">
         <v>4.96</v>
       </c>
-      <c r="D38" s="31">
+      <c r="D38" s="30">
         <v>134</v>
       </c>
-      <c r="E38" s="31">
+      <c r="E38" s="30">
         <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="6">
         <v>8.6999999999999993</v>
       </c>
@@ -1936,17 +1944,17 @@
       <c r="C39" s="9">
         <v>39.28</v>
       </c>
-      <c r="D39" s="32">
+      <c r="D39" s="31">
         <v>708</v>
       </c>
-      <c r="E39" s="32">
+      <c r="E39" s="31">
         <v>458</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>8.8000000000000007</v>
       </c>
@@ -1956,17 +1964,17 @@
       <c r="C40" s="3">
         <v>4</v>
       </c>
-      <c r="D40" s="31">
+      <c r="D40" s="30">
         <v>72</v>
       </c>
-      <c r="E40" s="31">
+      <c r="E40" s="30">
         <v>3</v>
       </c>
       <c r="F40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>9.1</v>
       </c>
@@ -1976,17 +1984,17 @@
       <c r="C41" s="3">
         <v>7.21</v>
       </c>
-      <c r="D41" s="31">
+      <c r="D41" s="30">
         <v>193</v>
       </c>
-      <c r="E41" s="31">
+      <c r="E41" s="30">
         <v>15</v>
       </c>
       <c r="F41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>9.1999999999999993</v>
       </c>
@@ -1996,17 +2004,17 @@
       <c r="C42" s="3">
         <v>5.84</v>
       </c>
-      <c r="D42" s="31">
+      <c r="D42" s="30">
         <v>516</v>
       </c>
-      <c r="E42" s="31">
+      <c r="E42" s="30">
         <v>32</v>
       </c>
       <c r="F42" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>9.3000000000000007</v>
       </c>
@@ -2016,17 +2024,17 @@
       <c r="C43" s="3">
         <v>5.17</v>
       </c>
-      <c r="D43" s="31">
+      <c r="D43" s="30">
         <v>440</v>
       </c>
-      <c r="E43" s="31">
+      <c r="E43" s="30">
         <v>24</v>
       </c>
       <c r="F43" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>10.1</v>
       </c>
@@ -2036,17 +2044,17 @@
       <c r="C44" s="3">
         <v>5.17</v>
       </c>
-      <c r="D44" s="31">
+      <c r="D44" s="30">
         <v>440</v>
       </c>
-      <c r="E44" s="31">
+      <c r="E44" s="30">
         <v>24</v>
       </c>
       <c r="F44" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="6">
         <v>10.199999999999999</v>
       </c>
@@ -2056,17 +2064,17 @@
       <c r="C45" s="9">
         <v>45.82</v>
       </c>
-      <c r="D45" s="32">
+      <c r="D45" s="31">
         <v>551</v>
       </c>
-      <c r="E45" s="32">
+      <c r="E45" s="31">
         <v>466</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>10.3</v>
       </c>
@@ -2076,17 +2084,17 @@
       <c r="C46" s="3">
         <v>8.5</v>
       </c>
-      <c r="D46" s="31">
+      <c r="D46" s="30">
         <v>280</v>
       </c>
-      <c r="E46" s="31">
+      <c r="E46" s="30">
         <v>26</v>
       </c>
       <c r="F46" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>10.4</v>
       </c>
@@ -2096,17 +2104,17 @@
       <c r="C47" s="3">
         <v>9.1199999999999992</v>
       </c>
-      <c r="D47" s="31">
+      <c r="D47" s="30">
         <v>279</v>
       </c>
-      <c r="E47" s="31">
+      <c r="E47" s="30">
         <v>28</v>
       </c>
       <c r="F47" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>10.5</v>
       </c>
@@ -2116,17 +2124,17 @@
       <c r="C48" s="3">
         <v>5</v>
       </c>
-      <c r="D48" s="31">
+      <c r="D48" s="30">
         <v>95</v>
       </c>
-      <c r="E48" s="31">
+      <c r="E48" s="30">
         <v>5</v>
       </c>
       <c r="F48" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>11.1</v>
       </c>
@@ -2136,57 +2144,57 @@
       <c r="C49" s="3">
         <v>6.62</v>
       </c>
-      <c r="D49" s="31">
+      <c r="D49" s="30">
         <v>254</v>
       </c>
-      <c r="E49" s="31">
+      <c r="E49" s="30">
         <v>18</v>
       </c>
       <c r="F49" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="20" customFormat="1">
+      <c r="A50" s="18">
         <v>11.2</v>
       </c>
-      <c r="B50" s="20">
+      <c r="B50" s="19">
         <v>94.02</v>
       </c>
       <c r="C50" s="3">
         <v>5.98</v>
       </c>
-      <c r="D50" s="33">
+      <c r="D50" s="32">
         <v>110</v>
       </c>
-      <c r="E50" s="33">
+      <c r="E50" s="32">
         <v>7</v>
       </c>
-      <c r="F50" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="19">
+      <c r="F50" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="20" customFormat="1">
+      <c r="A51" s="18">
         <v>11.3</v>
       </c>
-      <c r="B51" s="20">
+      <c r="B51" s="19">
         <v>94.7</v>
       </c>
-      <c r="C51" s="22">
+      <c r="C51" s="21">
         <v>5.3</v>
       </c>
-      <c r="D51" s="33">
+      <c r="D51" s="32">
         <v>125</v>
       </c>
-      <c r="E51" s="33">
+      <c r="E51" s="32">
         <v>7</v>
       </c>
       <c r="F51" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>12.1</v>
       </c>
@@ -2196,17 +2204,17 @@
       <c r="C52" s="3">
         <v>4.66</v>
       </c>
-      <c r="D52" s="31">
+      <c r="D52" s="30">
         <v>409</v>
       </c>
-      <c r="E52" s="31">
+      <c r="E52" s="30">
         <v>20</v>
       </c>
       <c r="F52" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>13.1</v>
       </c>
@@ -2216,17 +2224,17 @@
       <c r="C53" s="3">
         <v>7.17</v>
       </c>
-      <c r="D53" s="31">
+      <c r="D53" s="30">
         <v>233</v>
       </c>
-      <c r="E53" s="31">
+      <c r="E53" s="30">
         <v>18</v>
       </c>
       <c r="F53" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="6">
         <v>13.2</v>
       </c>
@@ -2236,57 +2244,57 @@
       <c r="C54" s="9">
         <v>67.55</v>
       </c>
-      <c r="D54" s="32">
+      <c r="D54" s="31">
         <v>197</v>
       </c>
-      <c r="E54" s="32">
+      <c r="E54" s="31">
         <v>410</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="20" customFormat="1">
+      <c r="A55" s="18">
         <v>13.3</v>
       </c>
-      <c r="B55" s="20">
+      <c r="B55" s="19">
         <v>96.67</v>
       </c>
-      <c r="C55" s="22">
+      <c r="C55" s="21">
         <v>3.33</v>
       </c>
-      <c r="D55" s="33">
+      <c r="D55" s="32">
         <v>464</v>
       </c>
-      <c r="E55" s="33">
+      <c r="E55" s="32">
         <v>16</v>
       </c>
       <c r="F55" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="20" customFormat="1">
+      <c r="A56" s="18">
         <v>14.1</v>
       </c>
-      <c r="B56" s="20">
+      <c r="B56" s="19">
         <v>95.17</v>
       </c>
-      <c r="C56" s="22">
+      <c r="C56" s="21">
         <v>4.83</v>
       </c>
-      <c r="D56" s="33">
+      <c r="D56" s="32">
         <v>138</v>
       </c>
-      <c r="E56" s="33">
+      <c r="E56" s="32">
         <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <v>15.1</v>
       </c>
@@ -2296,17 +2304,17 @@
       <c r="C57" s="3">
         <v>6.4</v>
       </c>
-      <c r="D57" s="31">
+      <c r="D57" s="30">
         <v>117</v>
       </c>
-      <c r="E57" s="31">
+      <c r="E57" s="30">
         <v>8</v>
       </c>
       <c r="F57" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>16.100000000000001</v>
       </c>
@@ -2316,17 +2324,17 @@
       <c r="C58" s="3">
         <v>8.92</v>
       </c>
-      <c r="D58" s="31">
+      <c r="D58" s="30">
         <v>899</v>
       </c>
-      <c r="E58" s="31">
+      <c r="E58" s="30">
         <v>88</v>
       </c>
       <c r="F58" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="6">
         <v>16.2</v>
       </c>
@@ -2336,17 +2344,17 @@
       <c r="C59" s="9">
         <v>28.33</v>
       </c>
-      <c r="D59" s="32">
+      <c r="D59" s="31">
         <v>1184</v>
       </c>
-      <c r="E59" s="32">
+      <c r="E59" s="31">
         <v>468</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>16.3</v>
       </c>
@@ -2356,17 +2364,17 @@
       <c r="C60" s="3">
         <v>4.6500000000000004</v>
       </c>
-      <c r="D60" s="31">
+      <c r="D60" s="30">
         <v>1864</v>
       </c>
-      <c r="E60" s="31">
+      <c r="E60" s="30">
         <v>91</v>
       </c>
       <c r="F60" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>16.399999999999999</v>
       </c>
@@ -2376,17 +2384,17 @@
       <c r="C61" s="3">
         <v>4.42</v>
       </c>
-      <c r="D61" s="31">
+      <c r="D61" s="30">
         <v>779</v>
       </c>
-      <c r="E61" s="31">
+      <c r="E61" s="30">
         <v>36</v>
       </c>
       <c r="F61" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="6">
         <v>16.5</v>
       </c>
@@ -2396,17 +2404,17 @@
       <c r="C62" s="9">
         <v>68.260000000000005</v>
       </c>
-      <c r="D62" s="32">
+      <c r="D62" s="31">
         <v>199</v>
       </c>
-      <c r="E62" s="32">
+      <c r="E62" s="31">
         <v>428</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="6">
         <v>17.100000000000001</v>
       </c>
@@ -2416,17 +2424,17 @@
       <c r="C63" s="9">
         <v>66.959999999999994</v>
       </c>
-      <c r="D63" s="32">
+      <c r="D63" s="31">
         <v>414</v>
       </c>
-      <c r="E63" s="32">
+      <c r="E63" s="31">
         <v>839</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="6">
         <v>17.2</v>
       </c>
@@ -2436,17 +2444,17 @@
       <c r="C64" s="9">
         <v>76.88</v>
       </c>
-      <c r="D64" s="32">
+      <c r="D64" s="31">
         <v>249</v>
       </c>
-      <c r="E64" s="32">
+      <c r="E64" s="31">
         <v>828</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>17.3</v>
       </c>
@@ -2456,17 +2464,17 @@
       <c r="C65" s="3">
         <v>4.6500000000000004</v>
       </c>
-      <c r="D65" s="31">
+      <c r="D65" s="30">
         <v>164</v>
       </c>
-      <c r="E65" s="31">
+      <c r="E65" s="30">
         <v>8</v>
       </c>
       <c r="F65" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>17.399999999999999</v>
       </c>
@@ -2476,17 +2484,17 @@
       <c r="C66" s="3">
         <v>4.45</v>
       </c>
-      <c r="D66" s="31">
+      <c r="D66" s="30">
         <v>279</v>
       </c>
-      <c r="E66" s="31">
+      <c r="E66" s="30">
         <v>13</v>
       </c>
       <c r="F66" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" s="20" customFormat="1">
       <c r="A67" s="6">
         <v>18.100000000000001</v>
       </c>
@@ -2496,17 +2504,17 @@
       <c r="C67" s="9">
         <v>25.2</v>
       </c>
-      <c r="D67" s="32">
+      <c r="D67" s="31">
         <v>1490</v>
       </c>
-      <c r="E67" s="32">
+      <c r="E67" s="31">
         <v>502</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>18.2</v>
       </c>
@@ -2516,37 +2524,37 @@
       <c r="C68" s="3">
         <v>4.09</v>
       </c>
-      <c r="D68" s="31">
+      <c r="D68" s="30">
         <v>352</v>
       </c>
-      <c r="E68" s="31">
+      <c r="E68" s="30">
         <v>15</v>
       </c>
       <c r="F68" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" s="20" customFormat="1">
+      <c r="A69" s="18">
         <v>18.3</v>
       </c>
-      <c r="B69" s="20">
+      <c r="B69" s="19">
         <v>95.45</v>
       </c>
       <c r="C69" s="3">
         <v>4.55</v>
       </c>
-      <c r="D69" s="33">
+      <c r="D69" s="32">
         <v>483</v>
       </c>
-      <c r="E69" s="33">
+      <c r="E69" s="32">
         <v>23</v>
       </c>
       <c r="F69" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
         <v>18.399999999999999</v>
       </c>
@@ -2556,17 +2564,17 @@
       <c r="C70" s="3">
         <v>5.83</v>
       </c>
-      <c r="D70" s="31">
+      <c r="D70" s="30">
         <v>194</v>
       </c>
-      <c r="E70" s="31">
+      <c r="E70" s="30">
         <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="6">
         <v>19.100000000000001</v>
       </c>
@@ -2576,37 +2584,37 @@
       <c r="C71" s="9">
         <v>30.55</v>
       </c>
-      <c r="D71" s="32">
+      <c r="D71" s="31">
         <v>103</v>
       </c>
-      <c r="E71" s="32">
+      <c r="E71" s="31">
         <v>457</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="20" customFormat="1">
+      <c r="A72" s="18">
         <v>19.2</v>
       </c>
-      <c r="B72" s="20">
+      <c r="B72" s="19">
         <v>93.76</v>
       </c>
       <c r="C72" s="3">
         <v>6.24</v>
       </c>
-      <c r="D72" s="33">
+      <c r="D72" s="32">
         <v>421</v>
       </c>
-      <c r="E72" s="33">
+      <c r="E72" s="32">
         <v>28</v>
       </c>
-      <c r="F72" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F72" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
         <v>20.100000000000001</v>
       </c>
@@ -2616,17 +2624,17 @@
       <c r="C73" s="3">
         <v>4.3499999999999996</v>
       </c>
-      <c r="D73" s="31">
+      <c r="D73" s="30">
         <v>264</v>
       </c>
-      <c r="E73" s="31">
+      <c r="E73" s="30">
         <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1">
         <v>20.2</v>
       </c>
@@ -2636,17 +2644,17 @@
       <c r="C74" s="3">
         <v>5.0599999999999996</v>
       </c>
-      <c r="D74" s="31">
+      <c r="D74" s="30">
         <v>225</v>
       </c>
-      <c r="E74" s="31">
+      <c r="E74" s="30">
         <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1">
         <v>21.1</v>
       </c>
@@ -2656,17 +2664,17 @@
       <c r="C75" s="3">
         <v>4.01</v>
       </c>
-      <c r="D75" s="31">
+      <c r="D75" s="30">
         <v>455</v>
       </c>
-      <c r="E75" s="31">
+      <c r="E75" s="30">
         <v>19</v>
       </c>
       <c r="F75" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1">
         <v>21.2</v>
       </c>
@@ -2676,17 +2684,17 @@
       <c r="C76" s="3">
         <v>4.3099999999999996</v>
       </c>
-      <c r="D76" s="31">
+      <c r="D76" s="30">
         <v>511</v>
       </c>
-      <c r="E76" s="31">
+      <c r="E76" s="30">
         <v>23</v>
       </c>
       <c r="F76" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1">
         <v>21.3</v>
       </c>
@@ -2696,17 +2704,17 @@
       <c r="C77" s="3">
         <v>3.93</v>
       </c>
-      <c r="D77" s="31">
+      <c r="D77" s="30">
         <v>171</v>
       </c>
-      <c r="E77" s="31">
+      <c r="E77" s="30">
         <v>7</v>
       </c>
       <c r="F77" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1">
         <v>21.4</v>
       </c>
@@ -2716,17 +2724,17 @@
       <c r="C78" s="3">
         <v>4.4400000000000004</v>
       </c>
-      <c r="D78" s="31">
+      <c r="D78" s="30">
         <v>495</v>
       </c>
-      <c r="E78" s="31">
+      <c r="E78" s="30">
         <v>23</v>
       </c>
       <c r="F78" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="6">
         <v>21.5</v>
       </c>
@@ -2736,17 +2744,17 @@
       <c r="C79" s="9">
         <v>47.42</v>
       </c>
-      <c r="D79" s="32">
+      <c r="D79" s="31">
         <v>468</v>
       </c>
-      <c r="E79" s="32">
+      <c r="E79" s="31">
         <v>422</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1">
         <v>21.6</v>
       </c>
@@ -2756,17 +2764,17 @@
       <c r="C80" s="3">
         <v>12.6</v>
       </c>
-      <c r="D80" s="31">
+      <c r="D80" s="30">
         <v>111</v>
       </c>
-      <c r="E80" s="31">
+      <c r="E80" s="30">
         <v>16</v>
       </c>
       <c r="F80" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1">
         <v>21.7</v>
       </c>
@@ -2776,17 +2784,17 @@
       <c r="C81" s="3">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D81" s="31">
+      <c r="D81" s="30">
         <v>291</v>
       </c>
-      <c r="E81" s="31">
+      <c r="E81" s="30">
         <v>15</v>
       </c>
       <c r="F81" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1">
         <v>21.8</v>
       </c>
@@ -2796,17 +2804,17 @@
       <c r="C82" s="3">
         <v>23.66</v>
       </c>
-      <c r="D82" s="31">
+      <c r="D82" s="30">
         <v>213</v>
       </c>
-      <c r="E82" s="31">
+      <c r="E82" s="30">
         <v>66</v>
       </c>
       <c r="F82" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1">
         <v>22.1</v>
       </c>
@@ -2816,17 +2824,17 @@
       <c r="C83" s="3">
         <v>3.78</v>
       </c>
-      <c r="D83" s="31">
+      <c r="D83" s="30">
         <v>280</v>
       </c>
-      <c r="E83" s="31">
+      <c r="E83" s="30">
         <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1">
         <v>22.2</v>
       </c>
@@ -2836,17 +2844,17 @@
       <c r="C84" s="3">
         <v>4.4800000000000004</v>
       </c>
-      <c r="D84" s="31">
+      <c r="D84" s="30">
         <v>490</v>
       </c>
-      <c r="E84" s="31">
+      <c r="E84" s="30">
         <v>23</v>
       </c>
       <c r="F84" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1">
         <v>22.3</v>
       </c>
@@ -2856,83 +2864,83 @@
       <c r="C85" s="3">
         <v>5.58</v>
       </c>
-      <c r="D85" s="31">
+      <c r="D85" s="30">
         <v>220</v>
       </c>
-      <c r="E85" s="31">
+      <c r="E85" s="30">
         <v>13</v>
       </c>
       <c r="F85" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15" thickBot="1">
       <c r="A86" s="10">
         <v>23.1</v>
       </c>
       <c r="B86" s="11">
         <v>93.16</v>
       </c>
-      <c r="C86" s="25">
+      <c r="C86" s="24">
         <v>6.84</v>
       </c>
-      <c r="D86" s="34">
+      <c r="D86" s="33">
         <v>109</v>
       </c>
-      <c r="E86" s="34">
+      <c r="E86" s="33">
         <v>8</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="16"/>
-      <c r="B87" s="14"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="35"/>
-      <c r="E87" s="35"/>
-      <c r="F87" s="15"/>
-    </row>
-    <row r="88" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15" thickTop="1">
+      <c r="A87" s="15"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="34"/>
+      <c r="F87" s="14"/>
+    </row>
+    <row r="88" spans="1:6" ht="15" thickBot="1">
+      <c r="A88" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15" thickTop="1">
       <c r="A89" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B89" s="36">
+        <v>38</v>
+      </c>
+      <c r="B89" s="35">
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" s="17" t="s">
-        <v>12</v>
+    <row r="90" spans="1:6">
+      <c r="A90" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="B90" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B92" s="27"/>
-      <c r="C92" s="37"/>
-    </row>
-    <row r="93" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" ht="15" thickBot="1">
+      <c r="A92" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B92" s="26"/>
+      <c r="C92" s="36"/>
+    </row>
+    <row r="93" spans="1:6" ht="15" thickTop="1">
       <c r="A93" s="13" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B93" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A94" s="17" t="s">
-        <v>12</v>
+    <row r="94" spans="1:6">
+      <c r="A94" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="B94" s="2">
         <v>2</v>
